--- a/biology/Médecine/Addictologie/Addictologie.xlsx
+++ b/biology/Médecine/Addictologie/Addictologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'addictologie est l'étude et le soin des addictions, c'est-à-dire de la dépendance physiologique et psychologique à une substance ou à un comportement.
 Ce domaine de recherche en construction vise à appréhender, dans un cadre commun, les psychopathologies entraînant les rapports de dépendance (toxicomanie, jeu pathologique, alcoolisme, tabagisme, mais aussi anorexie mentale, boulimie, etc.).
@@ -513,7 +525,9 @@
           <t>Aspects étudiés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce champ d'étude prend de l'ampleur et l'on en vient à considérer, dans certains cas, des « dépendances sans produit » comme, l'achat compulsif ou les jeux compulsifs (d'argent, notamment), les addictions comportementales virtuelles : la cyberaddiction (addictions au jeu vidéo, voire à Internet).
 Si le regroupement de pathologies aussi différentes peut sembler arbitraire ou absurde à première vue, l'addictologie s'appuie sur des caractéristiques communes partagées par ces troubles. Parmi ces caractéristiques, citons notamment une sémiologie commune (besoin impérieux, incapacité à arrêter le comportement, signes de sevrage en cas d'arrêt), des comorbidités importantes (le fait d'être atteint d'un de ces troubles augmente significativement le risque d'être atteint d'un autre), des bases neurobiologiques et génétiques communes (par exemple, l'allèle A1 du gène codant le récepteur dopaminergique D2).[Interprétation personnelle ?]
@@ -546,10 +560,12 @@
           <t>Addictologie en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'addictologie est une discipline médicale qui n'est pas une spécialisation mais une compétence : il s'agit d'un Diplôme d'études spécialisées complémentaires (DESC) de type I auquel l'inscription est ouverte à tout praticien indépendamment de son champ d'exercice habituel à l'issue de son internat ou plus tard durant sa carrière professionnelle. Ainsi, un médecin généraliste avec une compétence en addictologie ne devient pas addictologue, mais médecin généraliste addictologue ; de même pour les psychiatres, neuropsychiatres, etc.[1]
-Les addictologues exercent en cabinet privé, en CSAPA, en hôpital public ou privé ou dans d'autres structures — certaines de type associatif — proposant des sevrages, cures et éventuellement des post-cures aux malades dépendants[2],[3]. La durée d'un sevrage en hospitalisation complète est habituellement de dix à quinze jours[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'addictologie est une discipline médicale qui n'est pas une spécialisation mais une compétence : il s'agit d'un Diplôme d'études spécialisées complémentaires (DESC) de type I auquel l'inscription est ouverte à tout praticien indépendamment de son champ d'exercice habituel à l'issue de son internat ou plus tard durant sa carrière professionnelle. Ainsi, un médecin généraliste avec une compétence en addictologie ne devient pas addictologue, mais médecin généraliste addictologue ; de même pour les psychiatres, neuropsychiatres, etc.
+Les addictologues exercent en cabinet privé, en CSAPA, en hôpital public ou privé ou dans d'autres structures — certaines de type associatif — proposant des sevrages, cures et éventuellement des post-cures aux malades dépendants,. La durée d'un sevrage en hospitalisation complète est habituellement de dix à quinze jours.
 De nombreux "coach" ou "thérapeutes" non réglementés commencent à se dire addictologue, mais ce n'est pas légal et ils sont à risque de poursuite pour pratique illégale de la médecine.
 </t>
         </is>
